--- a/interactive.xlsx
+++ b/interactive.xlsx
@@ -2983,13 +2983,13 @@
         <v>12</v>
       </c>
       <c r="C87" t="n">
-        <v>5.75218475580081</v>
+        <v>5.67151440450491</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>8.83319892930236</v>
+        <v>8.51051752411876</v>
       </c>
       <c r="F87" t="n">
         <v>1.1461711071105</v>
@@ -2998,7 +2998,7 @@
         <v>-0.451843655379282</v>
       </c>
       <c r="H87" t="n">
-        <v>8.13887147757115</v>
+        <v>7.81619007238754</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>2.39283069941362</v>
+        <v>2.08818981574577</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.853399919048217</v>
+        <v>-0.0424822104396039</v>
       </c>
       <c r="F88" t="n">
         <v>0.549535415451845</v>
@@ -3027,7 +3027,7 @@
         <v>0.596976294167106</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.293111790570734</v>
+        <v>-1.18899392005855</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3041,13 +3041,13 @@
         <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>1.21782312754337</v>
+        <v>27.6327956778756</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.36423740368299</v>
+        <v>105.514216332317</v>
       </c>
       <c r="F89" t="n">
         <v>0.344042263374486</v>
@@ -3056,7 +3056,7 @@
         <v>0.537125352883185</v>
       </c>
       <c r="H89" t="n">
-        <v>-2.24540501994066</v>
+        <v>104.63304871606</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3070,13 +3070,13 @@
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>1.59558302648519</v>
+        <v>52.5194921267955</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.94002933872682</v>
+        <v>96.0957168611856</v>
       </c>
       <c r="F90" t="n">
         <v>-0.0928206603933966</v>
@@ -3085,7 +3085,7 @@
         <v>0.270598004175779</v>
       </c>
       <c r="H90" t="n">
-        <v>-2.1178066825092</v>
+        <v>95.9179395174032</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -3099,13 +3099,13 @@
         <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.03953147168062</v>
+        <v>31.0421778300851</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.7072590633609</v>
+        <v>-77.398739662723</v>
       </c>
       <c r="F91" t="n">
         <v>-0.248564436809013</v>
@@ -3114,7 +3114,7 @@
         <v>0.387110092511118</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.845804719063</v>
+        <v>-77.5372853184251</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -3128,13 +3128,13 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.18895852730767</v>
+        <v>12.7499706683285</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-3.74430830345997</v>
+        <v>-73.2113108574661</v>
       </c>
       <c r="F92" t="n">
         <v>0.0824906237301494</v>
@@ -3143,7 +3143,7 @@
         <v>0.205316780115145</v>
       </c>
       <c r="H92" t="n">
-        <v>-4.03211570730527</v>
+        <v>-73.4991182613114</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3157,13 +3157,13 @@
         <v>14</v>
       </c>
       <c r="C93" t="n">
-        <v>-2.41249233557825</v>
+        <v>-17.9302595466106</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.25837263676532</v>
+        <v>-17.206704527439</v>
       </c>
       <c r="F93" t="n">
         <v>0.0980640373196256</v>
@@ -3172,7 +3172,7 @@
         <v>0.150872940358082</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.50730961444303</v>
+        <v>-17.4556415051167</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -3186,13 +3186,13 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>-2.23522551021285</v>
+        <v>-45.7049371337172</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.2309620372652</v>
+        <v>-15.0029934872405</v>
       </c>
       <c r="F94" t="n">
         <v>-0.0746610194136011</v>
@@ -3201,7 +3201,7 @@
         <v>0.0924973942448058</v>
       </c>
       <c r="H94" t="n">
-        <v>-1.2487984120964</v>
+        <v>-15.0208298620717</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3215,13 +3215,13 @@
         <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>-2.21251591951146</v>
+        <v>-30.3476123982645</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.61642070055536</v>
+        <v>-15.9694407209125</v>
       </c>
       <c r="F95" t="n">
         <v>-0.0745049628708818</v>
@@ -3230,7 +3230,7 @@
         <v>0.0416418771052817</v>
       </c>
       <c r="H95" t="n">
-        <v>-1.58355761478976</v>
+        <v>-15.9365776351469</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -3244,13 +3244,13 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.81548253225083</v>
+        <v>-15.8999659597439</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-2.15617475441747</v>
+        <v>-15.4207251033835</v>
       </c>
       <c r="F96" t="n">
         <v>0.220418162288451</v>
@@ -3259,7 +3259,7 @@
         <v>-0.235820369548621</v>
       </c>
       <c r="H96" t="n">
-        <v>-2.1407725471573</v>
+        <v>-15.4053228961234</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3273,13 +3273,13 @@
         <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.68930586593321</v>
+        <v>-12.0302035535194</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.75366597149482</v>
+        <v>-1.72765490254099</v>
       </c>
       <c r="F97" t="n">
         <v>-0.0416387614202464</v>
@@ -3288,7 +3288,7 @@
         <v>0.0458811817757198</v>
       </c>
       <c r="H97" t="n">
-        <v>-1.75790839185029</v>
+        <v>-1.73189732289647</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -3302,13 +3302,13 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.87883142637476</v>
+        <v>-8.77240957312753</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.9890642790314</v>
+        <v>-1.97181756567307</v>
       </c>
       <c r="F98" t="n">
         <v>-0.0823818083711081</v>
@@ -3317,7 +3317,7 @@
         <v>0.0549561722421598</v>
       </c>
       <c r="H98" t="n">
-        <v>-1.96163864290245</v>
+        <v>-1.94439192954412</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -3331,13 +3331,13 @@
         <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.73859977396533</v>
+        <v>-4.99458254316726</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.05549409091765</v>
+        <v>-0.858132601071416</v>
       </c>
       <c r="F99" t="n">
         <v>-0.0265229186965328</v>
@@ -3346,7 +3346,7 @@
         <v>0.0138307701878628</v>
       </c>
       <c r="H99" t="n">
-        <v>-1.04280194240898</v>
+        <v>-0.845440452562746</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -3360,13 +3360,13 @@
         <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.42635522521906</v>
+        <v>-2.9898961633646</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.907196559432377</v>
+        <v>-7.40197958417291</v>
       </c>
       <c r="F100" t="n">
         <v>-0.0309566233913079</v>
@@ -3375,7 +3375,7 @@
         <v>0.023547188111109</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.899787124152178</v>
+        <v>-7.39457014889271</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -3389,13 +3389,13 @@
         <v>14</v>
       </c>
       <c r="C101" t="n">
-        <v>-1.10171482715553</v>
+        <v>-4.37122482421409</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.455104379240694</v>
+        <v>-7.25296954593898</v>
       </c>
       <c r="F101" t="n">
         <v>-0.030977506569077</v>
@@ -3404,7 +3404,7 @@
         <v>-0.00666386704120735</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.41746300563041</v>
+        <v>-7.2153281723287</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -3418,13 +3418,13 @@
         <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.662119220857008</v>
+        <v>-5.54307374294341</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.230681853837307</v>
+        <v>-6.65921324059034</v>
       </c>
       <c r="F102" t="n">
         <v>-0.0427185927536876</v>
@@ -3433,7 +3433,7 @@
         <v>-0.0402559095454801</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.147707351538139</v>
+        <v>-6.57623873829117</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -3447,13 +3447,13 @@
         <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.405171448895841</v>
+        <v>-6.94902555639709</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.0277030030729849</v>
+        <v>-6.48193985488613</v>
       </c>
       <c r="F103" t="n">
         <v>-0.040785098305987</v>
@@ -3462,7 +3462,7 @@
         <v>-0.0442662664644823</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0573483616974844</v>
+        <v>-6.39688849011566</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -3476,13 +3476,13 @@
         <v>13</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.144097837243529</v>
+        <v>-5.12107276508766</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.137097887176871</v>
+        <v>-0.0901684189351754</v>
       </c>
       <c r="F104" t="n">
         <v>-0.0327686737910796</v>
@@ -3491,7 +3491,7 @@
         <v>-0.0462688372201902</v>
       </c>
       <c r="H104" t="n">
-        <v>0.21613539818814</v>
+        <v>-0.0111309079239056</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -3505,13 +3505,13 @@
         <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0529948383976612</v>
+        <v>-3.30607380498818</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.333266323324068</v>
+        <v>0.00702629445892557</v>
       </c>
       <c r="F105" t="n">
         <v>-0.0358977252764777</v>
@@ -3520,7 +3520,7 @@
         <v>-0.0526630373835191</v>
       </c>
       <c r="H105" t="n">
-        <v>0.421827085984064</v>
+        <v>0.0955870571189224</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -3534,13 +3534,13 @@
         <v>10</v>
       </c>
       <c r="C106" t="n">
-        <v>0.146840031586642</v>
+        <v>-1.67610129381237</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="F106" t="n">
         <v>-0.0481845577540346</v>
@@ -3549,7 +3549,7 @@
         <v>-0.0535474064433861</v>
       </c>
       <c r="H106" t="n">
-        <v>0.246430883116036</v>
+        <v>-0.037591231689661</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -3563,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>0.189940512084542</v>
+        <v>-0.0904471290626034</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -3572,7 +3572,7 @@
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107" t="n">
-        <v>0.10269341507092</v>
+        <v>-0.0974341700321491</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>13</v>
       </c>
       <c r="C108" t="n">
-        <v>0.191840770019978</v>
+        <v>-0.10273582330058</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
       <c r="F108"/>
       <c r="G108"/>
       <c r="H108" t="n">
-        <v>-0.0742401112335353</v>
+        <v>-0.191292248379047</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -3609,7 +3609,7 @@
         <v>14</v>
       </c>
       <c r="C109" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
       <c r="F109"/>
       <c r="G109"/>
       <c r="H109" t="n">
-        <v>-0.184816492250079</v>
+        <v>-0.222056238134473</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3674,7 +3674,7 @@
         <v>13</v>
       </c>
       <c r="C112" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="C115" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>14</v>
       </c>
       <c r="C117" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>13</v>
       </c>
       <c r="C120" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>14</v>
       </c>
       <c r="C121" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="C124" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="C125" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="C127" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>13</v>
       </c>
       <c r="C128" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>14</v>
       </c>
       <c r="C129" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="C130" t="n">
-        <v>0.144698918918615</v>
+        <v>-0.139323195887082</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
